--- a/02_01_Funds_all.xlsx
+++ b/02_01_Funds_all.xlsx
@@ -2,14 +2,14 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ЭтаКнига" defaultThemeVersion="153222"/>
+  <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RukhlinaEY\AppData\Local\Temp\Rar$DIa2396.14848.rartemp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\RukhlinaEY\AppData\Local\Temp\Rar$DIa15028.26382.rartemp\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10035"/>
   </bookViews>
   <sheets>
     <sheet name="в рублях" sheetId="1" r:id="rId1"/>
@@ -448,23 +448,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист1"/>
-  <dimension ref="A1:FF10"/>
+  <dimension ref="A1:FG10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="EY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="EZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FF2" sqref="FF2"/>
+      <selection pane="bottomRight" activeCell="FG2" sqref="FG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="47.7109375" customWidth="1"/>
-    <col min="2" max="162" width="14.28515625" customWidth="1"/>
+    <col min="2" max="163" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:162" s="1" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:163" s="1" customFormat="1" ht="49.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>8</v>
       </c>
@@ -487,7 +486,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>40940</v>
@@ -972,8 +971,11 @@
       <c r="FF2" s="3">
         <v>45809</v>
       </c>
+      <c r="FG2" s="3">
+        <v>45839</v>
+      </c>
     </row>
-    <row r="3" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -1460,8 +1462,11 @@
       <c r="FF3" s="5">
         <v>124194497</v>
       </c>
+      <c r="FG3" s="5">
+        <v>124704767</v>
+      </c>
     </row>
-    <row r="4" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -1948,8 +1953,11 @@
       <c r="FF4" s="5">
         <v>18900697</v>
       </c>
+      <c r="FG4" s="5">
+        <v>19249465</v>
+      </c>
     </row>
-    <row r="5" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -2436,8 +2444,11 @@
       <c r="FF5" s="5">
         <v>34381150</v>
       </c>
+      <c r="FG5" s="5">
+        <v>33547882</v>
+      </c>
     </row>
-    <row r="6" spans="1:162" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:163" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -2924,8 +2935,11 @@
       <c r="FF6" s="5">
         <v>62490591</v>
       </c>
+      <c r="FG6" s="5">
+        <v>63369806</v>
+      </c>
     </row>
-    <row r="7" spans="1:162" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:163" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -3412,8 +3426,11 @@
       <c r="FF7" s="5">
         <v>55948071</v>
       </c>
+      <c r="FG7" s="5">
+        <v>56780591</v>
+      </c>
     </row>
-    <row r="8" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -3900,8 +3917,11 @@
       <c r="FF8" s="5">
         <v>6542494</v>
       </c>
+      <c r="FG8" s="5">
+        <v>6589189</v>
+      </c>
     </row>
-    <row r="9" spans="1:162" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:163" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -4388,8 +4408,11 @@
       <c r="FF9" s="5">
         <v>2450426</v>
       </c>
+      <c r="FG9" s="5">
+        <v>2505968</v>
+      </c>
     </row>
-    <row r="10" spans="1:162" s="1" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:163" s="1" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -4406,23 +4429,22 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист2"/>
-  <dimension ref="A1:FF10"/>
+  <dimension ref="A1:FG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="EX3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="EY3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FF2" sqref="FF2"/>
+      <selection pane="bottomRight" activeCell="FG2" sqref="FG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.140625" customWidth="1"/>
-    <col min="2" max="162" width="13.28515625" customWidth="1"/>
+    <col min="2" max="163" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:162" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:163" s="1" customFormat="1" ht="55.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="7" t="s">
         <v>10</v>
       </c>
@@ -4445,7 +4467,7 @@
       <c r="R1" s="7"/>
       <c r="S1" s="7"/>
     </row>
-    <row r="2" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>40940</v>
@@ -4930,8 +4952,11 @@
       <c r="FF2" s="3">
         <v>45809</v>
       </c>
+      <c r="FG2" s="3">
+        <v>45839</v>
+      </c>
     </row>
-    <row r="3" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -5418,8 +5443,11 @@
       <c r="FF3" s="5">
         <v>12382226</v>
       </c>
+      <c r="FG3" s="5">
+        <v>12266282</v>
+      </c>
     </row>
-    <row r="4" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -5906,8 +5934,11 @@
       <c r="FF4" s="5">
         <v>1991630</v>
       </c>
+      <c r="FG4" s="5">
+        <v>1786018</v>
+      </c>
     </row>
-    <row r="5" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -6394,8 +6425,11 @@
       <c r="FF5" s="5">
         <v>6680076</v>
       </c>
+      <c r="FG5" s="5">
+        <v>6760072</v>
+      </c>
     </row>
-    <row r="6" spans="1:162" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:163" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -6882,8 +6916,11 @@
       <c r="FF6" s="5">
         <v>3117983</v>
       </c>
+      <c r="FG6" s="5">
+        <v>3129554</v>
+      </c>
     </row>
-    <row r="7" spans="1:162" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:163" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -7370,8 +7407,11 @@
       <c r="FF7" s="5">
         <v>3117958</v>
       </c>
+      <c r="FG7" s="5">
+        <v>3129530</v>
+      </c>
     </row>
-    <row r="8" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -7858,8 +7898,11 @@
       <c r="FF8" s="5">
         <v>0</v>
       </c>
+      <c r="FG8" s="5">
+        <v>0</v>
+      </c>
     </row>
-    <row r="9" spans="1:162" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:163" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -8346,8 +8389,11 @@
       <c r="FF9" s="5">
         <v>23384</v>
       </c>
+      <c r="FG9" s="5">
+        <v>23453</v>
+      </c>
     </row>
-    <row r="10" spans="1:162" s="1" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:163" s="1" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
@@ -8364,23 +8410,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr codeName="Лист3"/>
-  <dimension ref="A1:FF10"/>
+  <dimension ref="A1:FG10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="EY3" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="EZ3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="FF2" sqref="FF2"/>
+      <selection pane="bottomRight" activeCell="FG2" sqref="FG2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="48.7109375" customWidth="1"/>
-    <col min="2" max="162" width="14.28515625" customWidth="1"/>
+    <col min="2" max="163" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:162" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:163" s="1" customFormat="1" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>11</v>
       </c>
@@ -8403,7 +8448,7 @@
       <c r="R1" s="8"/>
       <c r="S1" s="8"/>
     </row>
-    <row r="2" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2"/>
       <c r="B2" s="3">
         <v>40940</v>
@@ -8888,8 +8933,11 @@
       <c r="FF2" s="3">
         <v>45809</v>
       </c>
+      <c r="FG2" s="3">
+        <v>45839</v>
+      </c>
     </row>
-    <row r="3" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
@@ -9376,8 +9424,11 @@
       <c r="FF3" s="5">
         <v>136576723</v>
       </c>
+      <c r="FG3" s="5">
+        <v>136971049</v>
+      </c>
     </row>
-    <row r="4" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
@@ -9864,8 +9915,11 @@
       <c r="FF4" s="5">
         <v>20892328</v>
       </c>
+      <c r="FG4" s="5">
+        <v>21035483</v>
+      </c>
     </row>
-    <row r="5" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -10352,8 +10406,11 @@
       <c r="FF5" s="5">
         <v>41061226</v>
       </c>
+      <c r="FG5" s="5">
+        <v>40307955</v>
+      </c>
     </row>
-    <row r="6" spans="1:162" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:163" s="1" customFormat="1" ht="57" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="4" t="s">
         <v>3</v>
       </c>
@@ -10840,8 +10897,11 @@
       <c r="FF6" s="5">
         <v>65608573</v>
       </c>
+      <c r="FG6" s="5">
+        <v>66499360</v>
+      </c>
     </row>
-    <row r="7" spans="1:162" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:163" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
@@ -11328,8 +11388,11 @@
       <c r="FF7" s="5">
         <v>59066029</v>
       </c>
+      <c r="FG7" s="5">
+        <v>59910120</v>
+      </c>
     </row>
-    <row r="8" spans="1:162" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:163" s="1" customFormat="1" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="4" t="s">
         <v>6</v>
       </c>
@@ -11816,8 +11879,11 @@
       <c r="FF8" s="5">
         <v>6542494</v>
       </c>
+      <c r="FG8" s="5">
+        <v>6589189</v>
+      </c>
     </row>
-    <row r="9" spans="1:162" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:163" s="1" customFormat="1" ht="42.2" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -12304,8 +12370,11 @@
       <c r="FF9" s="5">
         <v>2473810</v>
       </c>
+      <c r="FG9" s="5">
+        <v>2529420</v>
+      </c>
     </row>
-    <row r="10" spans="1:162" s="1" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:163" s="1" customFormat="1" ht="67.150000000000006" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="6" t="s">
         <v>9</v>
       </c>
